--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel10/field_64ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel10/field_64ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -3652,28 +3652,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3113.937546660914</v>
+        <v>3295.067588656924</v>
       </c>
       <c r="AB2" t="n">
-        <v>4260.626728570666</v>
+        <v>4508.456842923106</v>
       </c>
       <c r="AC2" t="n">
-        <v>3853.998493422891</v>
+        <v>4078.176049493274</v>
       </c>
       <c r="AD2" t="n">
-        <v>3113937.546660914</v>
+        <v>3295067.588656924</v>
       </c>
       <c r="AE2" t="n">
-        <v>4260626.728570666</v>
+        <v>4508456.842923106</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.645744491786684e-07</v>
+        <v>1.102259775401758e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>40</v>
+        <v>39.75260416666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>3853998.493422891</v>
+        <v>4078176.049493274</v>
       </c>
     </row>
     <row r="3">
@@ -3758,28 +3758,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1491.104613465769</v>
+        <v>1603.167802606462</v>
       </c>
       <c r="AB3" t="n">
-        <v>2040.195115036688</v>
+        <v>2193.524914297968</v>
       </c>
       <c r="AC3" t="n">
-        <v>1845.481756689414</v>
+        <v>1984.177975108922</v>
       </c>
       <c r="AD3" t="n">
-        <v>1491104.613465769</v>
+        <v>1603167.802606462</v>
       </c>
       <c r="AE3" t="n">
-        <v>2040195.115036688</v>
+        <v>2193524.914297968</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.207783010694255e-06</v>
+        <v>1.741217786615844e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.166015625</v>
       </c>
       <c r="AH3" t="n">
-        <v>1845481.756689414</v>
+        <v>1984177.975108922</v>
       </c>
     </row>
     <row r="4">
@@ -3864,28 +3864,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1211.193428237336</v>
+        <v>1306.075222641634</v>
       </c>
       <c r="AB4" t="n">
-        <v>1657.208282597189</v>
+        <v>1787.029739590493</v>
       </c>
       <c r="AC4" t="n">
-        <v>1499.046650012545</v>
+        <v>1616.478129355968</v>
       </c>
       <c r="AD4" t="n">
-        <v>1211193.428237336</v>
+        <v>1306075.222641634</v>
       </c>
       <c r="AE4" t="n">
-        <v>1657208.282597189</v>
+        <v>1787029.739590493</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.37724236168452e-06</v>
+        <v>1.985521302595107e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.06705729166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1499046.650012545</v>
+        <v>1616478.129355968</v>
       </c>
     </row>
     <row r="5">
@@ -3970,28 +3970,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1079.788258168317</v>
+        <v>1174.669963064064</v>
       </c>
       <c r="AB5" t="n">
-        <v>1477.413931721799</v>
+        <v>1607.235266245555</v>
       </c>
       <c r="AC5" t="n">
-        <v>1336.411619641747</v>
+        <v>1453.842988203942</v>
       </c>
       <c r="AD5" t="n">
-        <v>1079788.258168317</v>
+        <v>1174669.963064064</v>
       </c>
       <c r="AE5" t="n">
-        <v>1477413.931721799</v>
+        <v>1607235.266245555</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.470048199086352e-06</v>
+        <v>2.119316175809096e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.673828125</v>
       </c>
       <c r="AH5" t="n">
-        <v>1336411.619641747</v>
+        <v>1453842.988203942</v>
       </c>
     </row>
     <row r="6">
@@ -4076,28 +4076,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1006.04372867266</v>
+        <v>1100.840092713835</v>
       </c>
       <c r="AB6" t="n">
-        <v>1376.513413086812</v>
+        <v>1506.217980488369</v>
       </c>
       <c r="AC6" t="n">
-        <v>1245.140904890515</v>
+        <v>1362.466650420772</v>
       </c>
       <c r="AD6" t="n">
-        <v>1006043.72867266</v>
+        <v>1100840.092713835</v>
       </c>
       <c r="AE6" t="n">
-        <v>1376513.413086812</v>
+        <v>1506217.980488369</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.526628015450044e-06</v>
+        <v>2.20088528362366e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.90885416666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1245140.904890515</v>
+        <v>1362466.650420772</v>
       </c>
     </row>
     <row r="7">
@@ -4182,28 +4182,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>959.2663393406342</v>
+        <v>1045.429425094877</v>
       </c>
       <c r="AB7" t="n">
-        <v>1312.510525329963</v>
+        <v>1430.402660505983</v>
       </c>
       <c r="AC7" t="n">
-        <v>1187.246362912563</v>
+        <v>1293.887038170034</v>
       </c>
       <c r="AD7" t="n">
-        <v>959266.3393406342</v>
+        <v>1045429.425094877</v>
       </c>
       <c r="AE7" t="n">
-        <v>1312510.525329963</v>
+        <v>1430402.660505983</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.566215213697907e-06</v>
+        <v>2.257956738596226e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>20</v>
+        <v>19.404296875</v>
       </c>
       <c r="AH7" t="n">
-        <v>1187246.362912563</v>
+        <v>1293887.038170034</v>
       </c>
     </row>
     <row r="8">
@@ -4288,28 +4288,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>922.7342557951894</v>
+        <v>1000.434655463092</v>
       </c>
       <c r="AB8" t="n">
-        <v>1262.525716941307</v>
+        <v>1368.838831666635</v>
       </c>
       <c r="AC8" t="n">
-        <v>1142.0320344824</v>
+        <v>1238.198774749737</v>
       </c>
       <c r="AD8" t="n">
-        <v>922734.2557951894</v>
+        <v>1000434.655463092</v>
       </c>
       <c r="AE8" t="n">
-        <v>1262525.716941307</v>
+        <v>1368838.831666635</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.594878586014167e-06</v>
+        <v>2.299279702456079e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>20</v>
+        <v>19.05598958333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1142032.0344824</v>
+        <v>1238198.774749737</v>
       </c>
     </row>
     <row r="9">
@@ -4394,28 +4394,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>881.5234023466443</v>
+        <v>967.7717394469075</v>
       </c>
       <c r="AB9" t="n">
-        <v>1206.139209158468</v>
+        <v>1324.147988987137</v>
       </c>
       <c r="AC9" t="n">
-        <v>1091.026975863395</v>
+        <v>1197.773163371578</v>
       </c>
       <c r="AD9" t="n">
-        <v>881523.4023466443</v>
+        <v>967771.7394469075</v>
       </c>
       <c r="AE9" t="n">
-        <v>1206139.209158468</v>
+        <v>1324147.988987137</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.616819603910978e-06</v>
+        <v>2.330911287169648e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>18.798828125</v>
       </c>
       <c r="AH9" t="n">
-        <v>1091026.975863395</v>
+        <v>1197773.163371578</v>
       </c>
     </row>
     <row r="10">
@@ -4500,28 +4500,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>855.2074301607574</v>
+        <v>941.4557672610206</v>
       </c>
       <c r="AB10" t="n">
-        <v>1170.132535034982</v>
+        <v>1288.141314863651</v>
       </c>
       <c r="AC10" t="n">
-        <v>1058.45672818257</v>
+        <v>1165.202915690754</v>
       </c>
       <c r="AD10" t="n">
-        <v>855207.4301607574</v>
+        <v>941455.7672610206</v>
       </c>
       <c r="AE10" t="n">
-        <v>1170132.535034982</v>
+        <v>1288141.314863651</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.6336254899596e-06</v>
+        <v>2.35513973503536e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>19</v>
+        <v>18.603515625</v>
       </c>
       <c r="AH10" t="n">
-        <v>1058456.72818257</v>
+        <v>1165202.915690754</v>
       </c>
     </row>
     <row r="11">
@@ -4606,28 +4606,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>831.6985616988537</v>
+        <v>909.3136205121847</v>
       </c>
       <c r="AB11" t="n">
-        <v>1137.966664067327</v>
+        <v>1244.163011670457</v>
       </c>
       <c r="AC11" t="n">
-        <v>1029.360722794984</v>
+        <v>1125.421840030382</v>
       </c>
       <c r="AD11" t="n">
-        <v>831698.5616988537</v>
+        <v>909313.6205121847</v>
       </c>
       <c r="AE11" t="n">
-        <v>1137966.664067327</v>
+        <v>1244163.011670457</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.646510002596876e-06</v>
+        <v>2.373714878399073e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>19</v>
+        <v>18.46028645833333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1029360.722794984</v>
+        <v>1125421.840030382</v>
       </c>
     </row>
     <row r="12">
@@ -4712,28 +4712,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>826.5586886550722</v>
+        <v>904.1737474684031</v>
       </c>
       <c r="AB12" t="n">
-        <v>1130.934063013629</v>
+        <v>1237.13041061676</v>
       </c>
       <c r="AC12" t="n">
-        <v>1022.999303315534</v>
+        <v>1119.060420550932</v>
       </c>
       <c r="AD12" t="n">
-        <v>826558.6886550721</v>
+        <v>904173.7474684031</v>
       </c>
       <c r="AE12" t="n">
-        <v>1130934.063013629</v>
+        <v>1237130.41061676</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.649404349638583e-06</v>
+        <v>2.377887555531501e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>19</v>
+        <v>18.427734375</v>
       </c>
       <c r="AH12" t="n">
-        <v>1022999.303315534</v>
+        <v>1119060.420550932</v>
       </c>
     </row>
     <row r="13">
@@ -4818,28 +4818,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>830.7924917012174</v>
+        <v>908.4075505145481</v>
       </c>
       <c r="AB13" t="n">
-        <v>1136.726939123573</v>
+        <v>1242.923286726704</v>
       </c>
       <c r="AC13" t="n">
-        <v>1028.239315459898</v>
+        <v>1124.300432695296</v>
       </c>
       <c r="AD13" t="n">
-        <v>830792.4917012174</v>
+        <v>908407.5505145481</v>
       </c>
       <c r="AE13" t="n">
-        <v>1136726.939123573</v>
+        <v>1242923.286726704</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.648844153436962e-06</v>
+        <v>2.377079940602644e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>19</v>
+        <v>18.43098958333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>1028239.315459898</v>
+        <v>1124300.432695296</v>
       </c>
     </row>
   </sheetData>
@@ -5115,28 +5115,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2171.476049466989</v>
+        <v>2314.401657701452</v>
       </c>
       <c r="AB2" t="n">
-        <v>2971.1093296429</v>
+        <v>3166.666452262292</v>
       </c>
       <c r="AC2" t="n">
-        <v>2687.550825199915</v>
+        <v>2864.444250502539</v>
       </c>
       <c r="AD2" t="n">
-        <v>2171476.049466989</v>
+        <v>2314401.657701452</v>
       </c>
       <c r="AE2" t="n">
-        <v>2971109.3296429</v>
+        <v>3166666.452262292</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.38911101265959e-07</v>
+        <v>1.374530531400902e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.486328125</v>
       </c>
       <c r="AH2" t="n">
-        <v>2687550.825199915</v>
+        <v>2864444.250502539</v>
       </c>
     </row>
     <row r="3">
@@ -5221,28 +5221,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1200.045943725457</v>
+        <v>1300.884434184901</v>
       </c>
       <c r="AB3" t="n">
-        <v>1641.955802495729</v>
+        <v>1779.927473822567</v>
       </c>
       <c r="AC3" t="n">
-        <v>1485.249845204978</v>
+        <v>1610.05369386484</v>
       </c>
       <c r="AD3" t="n">
-        <v>1200045.943725457</v>
+        <v>1300884.434184901</v>
       </c>
       <c r="AE3" t="n">
-        <v>1641955.802495729</v>
+        <v>1779927.473822567</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.351429290084693e-06</v>
+        <v>1.978441641329227e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.26497395833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1485249.845204978</v>
+        <v>1610053.69386484</v>
       </c>
     </row>
     <row r="4">
@@ -5327,28 +5327,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>998.1252240194387</v>
+        <v>1090.6315422699</v>
       </c>
       <c r="AB4" t="n">
-        <v>1365.678965680504</v>
+        <v>1492.250191401517</v>
       </c>
       <c r="AC4" t="n">
-        <v>1235.340481938422</v>
+        <v>1349.831927520454</v>
       </c>
       <c r="AD4" t="n">
-        <v>998125.2240194387</v>
+        <v>1090631.5422699</v>
       </c>
       <c r="AE4" t="n">
-        <v>1365678.965680504</v>
+        <v>1492250.191401517</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.503358840778176e-06</v>
+        <v>2.200860788113881e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.91145833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1235340.481938422</v>
+        <v>1349831.927520454</v>
       </c>
     </row>
     <row r="5">
@@ -5433,28 +5433,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>903.2562209284744</v>
+        <v>995.6771983243643</v>
       </c>
       <c r="AB5" t="n">
-        <v>1235.875010326416</v>
+        <v>1362.329468925232</v>
       </c>
       <c r="AC5" t="n">
-        <v>1117.924833902333</v>
+        <v>1232.310656452425</v>
       </c>
       <c r="AD5" t="n">
-        <v>903256.2209284743</v>
+        <v>995677.1983243644</v>
       </c>
       <c r="AE5" t="n">
-        <v>1235875.010326416</v>
+        <v>1362329.468925232</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.58516706038236e-06</v>
+        <v>2.320624944074848e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.833984375</v>
       </c>
       <c r="AH5" t="n">
-        <v>1117924.833902333</v>
+        <v>1232310.656452425</v>
       </c>
     </row>
     <row r="6">
@@ -5539,28 +5539,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>848.90270765227</v>
+        <v>932.9063510017081</v>
       </c>
       <c r="AB6" t="n">
-        <v>1161.506135554143</v>
+        <v>1276.443626364034</v>
       </c>
       <c r="AC6" t="n">
-        <v>1050.653620160955</v>
+        <v>1154.621638163731</v>
       </c>
       <c r="AD6" t="n">
-        <v>848902.70765227</v>
+        <v>932906.3510017081</v>
       </c>
       <c r="AE6" t="n">
-        <v>1161506.135554143</v>
+        <v>1276443.626364034</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.636164392083669e-06</v>
+        <v>2.395283119219347e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.21549479166667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1050653.620160955</v>
+        <v>1154621.638163731</v>
       </c>
     </row>
     <row r="7">
@@ -5645,28 +5645,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>797.459563667166</v>
+        <v>881.5484583626246</v>
       </c>
       <c r="AB7" t="n">
-        <v>1091.119356442385</v>
+        <v>1206.173491904925</v>
       </c>
       <c r="AC7" t="n">
-        <v>986.9844564591582</v>
+        <v>1091.057986712647</v>
       </c>
       <c r="AD7" t="n">
-        <v>797459.5636671659</v>
+        <v>881548.4583626246</v>
       </c>
       <c r="AE7" t="n">
-        <v>1091119.356442385</v>
+        <v>1206173.491904925</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.669583098084905e-06</v>
+        <v>2.444206847628432e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.83138020833333</v>
       </c>
       <c r="AH7" t="n">
-        <v>986984.4564591582</v>
+        <v>1091057.986712647</v>
       </c>
     </row>
     <row r="8">
@@ -5751,28 +5751,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>764.2867269312069</v>
+        <v>848.3756216266656</v>
       </c>
       <c r="AB8" t="n">
-        <v>1045.730817737977</v>
+        <v>1160.784953200517</v>
       </c>
       <c r="AC8" t="n">
-        <v>945.9277361854842</v>
+        <v>1050.001266438973</v>
       </c>
       <c r="AD8" t="n">
-        <v>764286.7269312069</v>
+        <v>848375.6216266656</v>
       </c>
       <c r="AE8" t="n">
-        <v>1045730.817737977</v>
+        <v>1160784.953200517</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.693536390247642e-06</v>
+        <v>2.479273566256909e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.564453125</v>
       </c>
       <c r="AH8" t="n">
-        <v>945927.7361854841</v>
+        <v>1050001.266438973</v>
       </c>
     </row>
     <row r="9">
@@ -5857,28 +5857,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>758.5480380773306</v>
+        <v>842.6369327727891</v>
       </c>
       <c r="AB9" t="n">
-        <v>1037.878890475019</v>
+        <v>1152.933025937559</v>
       </c>
       <c r="AC9" t="n">
-        <v>938.8251858402539</v>
+        <v>1042.898716093742</v>
       </c>
       <c r="AD9" t="n">
-        <v>758548.0380773306</v>
+        <v>842636.9327727892</v>
       </c>
       <c r="AE9" t="n">
-        <v>1037878.890475019</v>
+        <v>1152933.025937559</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.698269097166892e-06</v>
+        <v>2.486202071147213e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>18.51236979166667</v>
       </c>
       <c r="AH9" t="n">
-        <v>938825.1858402538</v>
+        <v>1042898.716093743</v>
       </c>
     </row>
     <row r="10">
@@ -5963,28 +5963,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>761.7713404856897</v>
+        <v>845.8602351811484</v>
       </c>
       <c r="AB10" t="n">
-        <v>1042.289155032202</v>
+        <v>1157.343290494742</v>
       </c>
       <c r="AC10" t="n">
-        <v>942.8145409379447</v>
+        <v>1046.888071191433</v>
       </c>
       <c r="AD10" t="n">
-        <v>761771.3404856897</v>
+        <v>845860.2351811484</v>
       </c>
       <c r="AE10" t="n">
-        <v>1042289.155032202</v>
+        <v>1157343.290494742</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.698365683022386e-06</v>
+        <v>2.486343469206199e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>19</v>
+        <v>18.51236979166667</v>
       </c>
       <c r="AH10" t="n">
-        <v>942814.5409379447</v>
+        <v>1046888.071191433</v>
       </c>
     </row>
   </sheetData>
@@ -6260,28 +6260,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>875.4013343258065</v>
+        <v>968.4382069360926</v>
       </c>
       <c r="AB2" t="n">
-        <v>1197.762725605778</v>
+        <v>1325.05987920831</v>
       </c>
       <c r="AC2" t="n">
-        <v>1083.449932144506</v>
+        <v>1198.598024069889</v>
       </c>
       <c r="AD2" t="n">
-        <v>875401.3343258065</v>
+        <v>968438.2069360926</v>
       </c>
       <c r="AE2" t="n">
-        <v>1197762.725605778</v>
+        <v>1325059.87920831</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.501100567048618e-06</v>
+        <v>2.322387862443026e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.37239583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1083449.932144505</v>
+        <v>1198598.024069889</v>
       </c>
     </row>
     <row r="3">
@@ -6366,28 +6366,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>618.5161405192792</v>
+        <v>696.1890278616778</v>
       </c>
       <c r="AB3" t="n">
-        <v>846.2810704647783</v>
+        <v>952.5565416125939</v>
       </c>
       <c r="AC3" t="n">
-        <v>765.5131928625614</v>
+        <v>861.6458822025901</v>
       </c>
       <c r="AD3" t="n">
-        <v>618516.1405192793</v>
+        <v>696189.0278616778</v>
       </c>
       <c r="AE3" t="n">
-        <v>846281.0704647782</v>
+        <v>952556.5416125939</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.793927264397203e-06</v>
+        <v>2.775426907694152e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.55729166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>765513.1928625613</v>
+        <v>861645.8822025901</v>
       </c>
     </row>
     <row r="4">
@@ -6472,28 +6472,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>601.6707547302494</v>
+        <v>679.1730498720558</v>
       </c>
       <c r="AB4" t="n">
-        <v>823.2324704622566</v>
+        <v>929.2745298352253</v>
       </c>
       <c r="AC4" t="n">
-        <v>744.6643188953669</v>
+        <v>840.5858729527447</v>
       </c>
       <c r="AD4" t="n">
-        <v>601670.7547302494</v>
+        <v>679173.0498720558</v>
       </c>
       <c r="AE4" t="n">
-        <v>823232.4704622566</v>
+        <v>929274.5298352253</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.820655648991407e-06</v>
+        <v>2.81677901782381e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.27083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>744664.318895367</v>
+        <v>840585.8729527447</v>
       </c>
     </row>
   </sheetData>
@@ -6769,28 +6769,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1231.149590488557</v>
+        <v>1335.343390795216</v>
       </c>
       <c r="AB2" t="n">
-        <v>1684.513184193053</v>
+        <v>1827.075738478674</v>
       </c>
       <c r="AC2" t="n">
-        <v>1523.74561012277</v>
+        <v>1652.702194315173</v>
       </c>
       <c r="AD2" t="n">
-        <v>1231149.590488557</v>
+        <v>1335343.390795216</v>
       </c>
       <c r="AE2" t="n">
-        <v>1684513.184193053</v>
+        <v>1827075.738478674</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.274076327011998e-06</v>
+        <v>1.925503868344694e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.34440104166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1523745.61012277</v>
+        <v>1652702.194315173</v>
       </c>
     </row>
     <row r="3">
@@ -6875,28 +6875,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>810.8985257527144</v>
+        <v>899.0493055273332</v>
       </c>
       <c r="AB3" t="n">
-        <v>1109.507137252996</v>
+        <v>1230.118923078566</v>
       </c>
       <c r="AC3" t="n">
-        <v>1003.617333276617</v>
+        <v>1112.718099542698</v>
       </c>
       <c r="AD3" t="n">
-        <v>810898.5257527144</v>
+        <v>899049.3055273332</v>
       </c>
       <c r="AE3" t="n">
-        <v>1109507.137252996</v>
+        <v>1230118.923078566</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.618036724107735e-06</v>
+        <v>2.445329141857512e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.7421875</v>
       </c>
       <c r="AH3" t="n">
-        <v>1003617.333276617</v>
+        <v>1112718.099542698</v>
       </c>
     </row>
     <row r="4">
@@ -6981,28 +6981,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>697.7115769522705</v>
+        <v>777.755639869124</v>
       </c>
       <c r="AB4" t="n">
-        <v>954.6397604484681</v>
+        <v>1064.159578626137</v>
       </c>
       <c r="AC4" t="n">
-        <v>863.5302815565844</v>
+        <v>962.5976819994067</v>
       </c>
       <c r="AD4" t="n">
-        <v>697711.5769522706</v>
+        <v>777755.639869124</v>
       </c>
       <c r="AE4" t="n">
-        <v>954639.7604484682</v>
+        <v>1064159.578626137</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.740732429306754e-06</v>
+        <v>2.630758421078212e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.28059895833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>863530.2815565844</v>
+        <v>962597.6819994068</v>
       </c>
     </row>
     <row r="5">
@@ -7087,28 +7087,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>649.9050342187808</v>
+        <v>730.034348481655</v>
       </c>
       <c r="AB5" t="n">
-        <v>889.2287396046931</v>
+        <v>998.8652024350113</v>
       </c>
       <c r="AC5" t="n">
-        <v>804.361996737195</v>
+        <v>903.5349094307296</v>
       </c>
       <c r="AD5" t="n">
-        <v>649905.0342187808</v>
+        <v>730034.348481655</v>
       </c>
       <c r="AE5" t="n">
-        <v>889228.7396046931</v>
+        <v>998865.2024350113</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.781562260616679e-06</v>
+        <v>2.692464298869302e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.84114583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>804361.9967371949</v>
+        <v>903534.9094307296</v>
       </c>
     </row>
     <row r="6">
@@ -7193,28 +7193,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>654.1722592853753</v>
+        <v>734.3015735482494</v>
       </c>
       <c r="AB6" t="n">
-        <v>895.0673451974911</v>
+        <v>1004.703808027809</v>
       </c>
       <c r="AC6" t="n">
-        <v>809.6433740067507</v>
+        <v>908.8162867002851</v>
       </c>
       <c r="AD6" t="n">
-        <v>654172.2592853752</v>
+        <v>734301.5735482494</v>
       </c>
       <c r="AE6" t="n">
-        <v>895067.3451974911</v>
+        <v>1004703.808027809</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.780840521174332e-06</v>
+        <v>2.691373538403298e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.84765625</v>
       </c>
       <c r="AH6" t="n">
-        <v>809643.3740067508</v>
+        <v>908816.2867002852</v>
       </c>
     </row>
   </sheetData>
@@ -7490,28 +7490,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>651.1865400022086</v>
+        <v>734.1628758101692</v>
       </c>
       <c r="AB2" t="n">
-        <v>890.9821523536243</v>
+        <v>1004.514035663655</v>
       </c>
       <c r="AC2" t="n">
-        <v>805.9480662342985</v>
+        <v>908.6446259442193</v>
       </c>
       <c r="AD2" t="n">
-        <v>651186.5400022087</v>
+        <v>734162.8758101693</v>
       </c>
       <c r="AE2" t="n">
-        <v>890982.1523536243</v>
+        <v>1004514.035663655</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.700727915820683e-06</v>
+        <v>2.687980045794873e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.42578125</v>
       </c>
       <c r="AH2" t="n">
-        <v>805948.0662342985</v>
+        <v>908644.6259442193</v>
       </c>
     </row>
     <row r="3">
@@ -7596,28 +7596,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>557.7555620099363</v>
+        <v>640.7318083093458</v>
       </c>
       <c r="AB3" t="n">
-        <v>763.1457663807563</v>
+        <v>876.6775272212387</v>
       </c>
       <c r="AC3" t="n">
-        <v>690.3122055191864</v>
+        <v>793.0086544478803</v>
       </c>
       <c r="AD3" t="n">
-        <v>557755.5620099363</v>
+        <v>640731.8083093457</v>
       </c>
       <c r="AE3" t="n">
-        <v>763145.7663807563</v>
+        <v>876677.5272212387</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.830795431825924e-06</v>
+        <v>2.893550192774841e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.90234375</v>
       </c>
       <c r="AH3" t="n">
-        <v>690312.2055191863</v>
+        <v>793008.6544478803</v>
       </c>
     </row>
   </sheetData>
@@ -7893,28 +7893,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2376.877790028548</v>
+        <v>2529.327736917903</v>
       </c>
       <c r="AB2" t="n">
-        <v>3252.149052764662</v>
+        <v>3460.737795715675</v>
       </c>
       <c r="AC2" t="n">
-        <v>2941.768511588543</v>
+        <v>3130.449837668443</v>
       </c>
       <c r="AD2" t="n">
-        <v>2376877.790028548</v>
+        <v>2529327.736917903</v>
       </c>
       <c r="AE2" t="n">
-        <v>3252149.052764663</v>
+        <v>3460737.795715676</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.915196099139739e-07</v>
+        <v>1.299734215586621e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.94791666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>2941768.511588543</v>
+        <v>3130449.837668443</v>
       </c>
     </row>
     <row r="3">
@@ -7999,28 +7999,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1266.938040145682</v>
+        <v>1368.628231974966</v>
       </c>
       <c r="AB3" t="n">
-        <v>1733.480519888898</v>
+        <v>1872.617526604364</v>
       </c>
       <c r="AC3" t="n">
-        <v>1568.039572025891</v>
+        <v>1693.897538100448</v>
       </c>
       <c r="AD3" t="n">
-        <v>1266938.040145682</v>
+        <v>1368628.231974966</v>
       </c>
       <c r="AE3" t="n">
-        <v>1733480.519888898</v>
+        <v>1872617.526604364</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.312584111096234e-06</v>
+        <v>1.913598378606327e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.73697916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1568039.572025891</v>
+        <v>1693897.538100448</v>
       </c>
     </row>
     <row r="4">
@@ -8105,28 +8105,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1053.008895980411</v>
+        <v>1146.054312956662</v>
       </c>
       <c r="AB4" t="n">
-        <v>1440.773226954227</v>
+        <v>1568.082071335223</v>
       </c>
       <c r="AC4" t="n">
-        <v>1303.267852311639</v>
+        <v>1418.426519263998</v>
       </c>
       <c r="AD4" t="n">
-        <v>1053008.895980411</v>
+        <v>1146054.312956662</v>
       </c>
       <c r="AE4" t="n">
-        <v>1440773.226954227</v>
+        <v>1568082.071335224</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.471093502766573e-06</v>
+        <v>2.144687047385738e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.181640625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1303267.852311639</v>
+        <v>1418426.519263998</v>
       </c>
     </row>
     <row r="5">
@@ -8211,28 +8211,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>953.8977423767359</v>
+        <v>1038.554317555119</v>
       </c>
       <c r="AB5" t="n">
-        <v>1305.164974118175</v>
+        <v>1420.995835061747</v>
       </c>
       <c r="AC5" t="n">
-        <v>1180.601860798882</v>
+        <v>1285.377986943634</v>
       </c>
       <c r="AD5" t="n">
-        <v>953897.7423767359</v>
+        <v>1038554.317555119</v>
       </c>
       <c r="AE5" t="n">
-        <v>1305164.974118175</v>
+        <v>1420995.835061747</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.555038391954307e-06</v>
+        <v>2.267069150356478e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.03580729166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1180601.860798882</v>
+        <v>1285377.986943634</v>
       </c>
     </row>
     <row r="6">
@@ -8317,28 +8317,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>887.5401675780766</v>
+        <v>972.1114019018877</v>
       </c>
       <c r="AB6" t="n">
-        <v>1214.371612789061</v>
+        <v>1330.085706610436</v>
       </c>
       <c r="AC6" t="n">
-        <v>1098.473690445736</v>
+        <v>1203.144193558549</v>
       </c>
       <c r="AD6" t="n">
-        <v>887540.1675780766</v>
+        <v>972111.4019018877</v>
       </c>
       <c r="AE6" t="n">
-        <v>1214371.612789061</v>
+        <v>1330085.706610436</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.607874855844421e-06</v>
+        <v>2.344098706616282e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.37825520833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1098473.690445736</v>
+        <v>1203144.193558549</v>
       </c>
     </row>
     <row r="7">
@@ -8423,28 +8423,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>837.1312252892965</v>
+        <v>921.7877109591284</v>
       </c>
       <c r="AB7" t="n">
-        <v>1145.399874063973</v>
+        <v>1261.230612537997</v>
       </c>
       <c r="AC7" t="n">
-        <v>1036.084517662126</v>
+        <v>1140.860533025652</v>
       </c>
       <c r="AD7" t="n">
-        <v>837131.2252892965</v>
+        <v>921787.7109591283</v>
       </c>
       <c r="AE7" t="n">
-        <v>1145399.874063973</v>
+        <v>1261230.612537997</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.641376236934166e-06</v>
+        <v>2.39293991076652e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.984375</v>
       </c>
       <c r="AH7" t="n">
-        <v>1036084.517662126</v>
+        <v>1140860.533025652</v>
       </c>
     </row>
     <row r="8">
@@ -8529,28 +8529,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>798.8804111133184</v>
+        <v>883.53689678315</v>
       </c>
       <c r="AB8" t="n">
-        <v>1093.063422601576</v>
+        <v>1208.8941610756</v>
       </c>
       <c r="AC8" t="n">
-        <v>988.7429836726301</v>
+        <v>1093.518999036156</v>
       </c>
       <c r="AD8" t="n">
-        <v>798880.4111133184</v>
+        <v>883536.89678315</v>
       </c>
       <c r="AE8" t="n">
-        <v>1093063.422601576</v>
+        <v>1208894.1610756</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.670283142903032e-06</v>
+        <v>2.435082892633297e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.65559895833333</v>
       </c>
       <c r="AH8" t="n">
-        <v>988742.98367263</v>
+        <v>1093518.999036156</v>
       </c>
     </row>
     <row r="9">
@@ -8635,28 +8635,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>775.976090156164</v>
+        <v>860.4619836254036</v>
       </c>
       <c r="AB9" t="n">
-        <v>1061.724720200672</v>
+        <v>1177.322046899849</v>
       </c>
       <c r="AC9" t="n">
-        <v>960.3952030447233</v>
+        <v>1064.960083125598</v>
       </c>
       <c r="AD9" t="n">
-        <v>775976.090156164</v>
+        <v>860461.9836254036</v>
       </c>
       <c r="AE9" t="n">
-        <v>1061724.720200672</v>
+        <v>1177322.046899849</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.68483231411915e-06</v>
+        <v>2.456293929864257e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>18.49283854166667</v>
       </c>
       <c r="AH9" t="n">
-        <v>960395.2030447233</v>
+        <v>1064960.083125598</v>
       </c>
     </row>
     <row r="10">
@@ -8741,28 +8741,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>775.9749115449936</v>
+        <v>852.1573040709359</v>
       </c>
       <c r="AB10" t="n">
-        <v>1061.723107572872</v>
+        <v>1165.959217956822</v>
       </c>
       <c r="AC10" t="n">
-        <v>960.3937443238572</v>
+        <v>1054.681706629063</v>
       </c>
       <c r="AD10" t="n">
-        <v>775974.9115449935</v>
+        <v>852157.3040709359</v>
       </c>
       <c r="AE10" t="n">
-        <v>1061723.107572872</v>
+        <v>1165959.217956822</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.687225269911275e-06</v>
+        <v>2.45978258730356e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>19</v>
+        <v>18.466796875</v>
       </c>
       <c r="AH10" t="n">
-        <v>960393.7443238571</v>
+        <v>1054681.706629063</v>
       </c>
     </row>
   </sheetData>
@@ -9038,28 +9038,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>546.7503815493595</v>
+        <v>628.4540224862697</v>
       </c>
       <c r="AB2" t="n">
-        <v>748.0879929602991</v>
+        <v>859.878519000424</v>
       </c>
       <c r="AC2" t="n">
-        <v>676.6915248602597</v>
+        <v>777.8129199941039</v>
       </c>
       <c r="AD2" t="n">
-        <v>546750.3815493595</v>
+        <v>628454.0224862697</v>
       </c>
       <c r="AE2" t="n">
-        <v>748087.992960299</v>
+        <v>859878.5190004241</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.80762113013986e-06</v>
+        <v>2.896233656490178e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.62825520833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>676691.5248602597</v>
+        <v>777812.919994104</v>
       </c>
     </row>
     <row r="3">
@@ -9144,28 +9144,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>543.4372180650226</v>
+        <v>624.9702668013406</v>
       </c>
       <c r="AB3" t="n">
-        <v>743.5547765145723</v>
+        <v>855.1118907798503</v>
       </c>
       <c r="AC3" t="n">
-        <v>672.590952229704</v>
+        <v>773.5012120808972</v>
       </c>
       <c r="AD3" t="n">
-        <v>543437.2180650226</v>
+        <v>624970.2668013406</v>
       </c>
       <c r="AE3" t="n">
-        <v>743554.7765145723</v>
+        <v>855111.8907798503</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.821367298429897e-06</v>
+        <v>2.91825824703383e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.47200520833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>672590.952229704</v>
+        <v>773501.2120808972</v>
       </c>
     </row>
   </sheetData>
@@ -9441,28 +9441,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1649.858863305018</v>
+        <v>1773.357055634612</v>
       </c>
       <c r="AB2" t="n">
-        <v>2257.409683409952</v>
+        <v>2426.385358511022</v>
       </c>
       <c r="AC2" t="n">
-        <v>2041.965671519695</v>
+        <v>2194.814545347968</v>
       </c>
       <c r="AD2" t="n">
-        <v>1649858.863305018</v>
+        <v>1773357.055634612</v>
       </c>
       <c r="AE2" t="n">
-        <v>2257409.683409952</v>
+        <v>2426385.358511022</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.091661563991356e-06</v>
+        <v>1.620946246860285e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.67447916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2041965.671519695</v>
+        <v>2194814.545347968</v>
       </c>
     </row>
     <row r="3">
@@ -9547,28 +9547,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>998.7329058653249</v>
+        <v>1097.360778019857</v>
       </c>
       <c r="AB3" t="n">
-        <v>1366.510422791076</v>
+        <v>1501.457428627537</v>
       </c>
       <c r="AC3" t="n">
-        <v>1236.09258594932</v>
+        <v>1358.16043894806</v>
       </c>
       <c r="AD3" t="n">
-        <v>998732.9058653249</v>
+        <v>1097360.778019856</v>
       </c>
       <c r="AE3" t="n">
-        <v>1366510.422791076</v>
+        <v>1501457.428627537</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.473394814626802e-06</v>
+        <v>2.187760267184447e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.98567708333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1236092.585949319</v>
+        <v>1358160.43894806</v>
       </c>
     </row>
     <row r="4">
@@ -9653,28 +9653,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>853.0375371443959</v>
+        <v>935.2844140181043</v>
       </c>
       <c r="AB4" t="n">
-        <v>1167.163591681072</v>
+        <v>1279.697397095803</v>
       </c>
       <c r="AC4" t="n">
-        <v>1055.771136615419</v>
+        <v>1157.564873583556</v>
       </c>
       <c r="AD4" t="n">
-        <v>853037.5371443959</v>
+        <v>935284.4140181042</v>
       </c>
       <c r="AE4" t="n">
-        <v>1167163.591681072</v>
+        <v>1279697.397095803</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.613708652842646e-06</v>
+        <v>2.396104315322368e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.07486979166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1055771.13661542</v>
+        <v>1157564.873583556</v>
       </c>
     </row>
     <row r="5">
@@ -9759,28 +9759,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>774.6010998998333</v>
+        <v>856.7626359189701</v>
       </c>
       <c r="AB5" t="n">
-        <v>1059.843397871671</v>
+        <v>1172.260436164205</v>
       </c>
       <c r="AC5" t="n">
-        <v>958.6934314783498</v>
+        <v>1060.381545414547</v>
       </c>
       <c r="AD5" t="n">
-        <v>774601.0998998333</v>
+        <v>856762.6359189701</v>
       </c>
       <c r="AE5" t="n">
-        <v>1059843.397871671</v>
+        <v>1172260.436164204</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.685756325798867e-06</v>
+        <v>2.503083812380422e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.21549479166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>958693.4314783498</v>
+        <v>1060381.545414547</v>
       </c>
     </row>
     <row r="6">
@@ -9865,28 +9865,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>716.2083957746557</v>
+        <v>798.4551831398131</v>
       </c>
       <c r="AB6" t="n">
-        <v>979.9479239833103</v>
+        <v>1092.481606928492</v>
       </c>
       <c r="AC6" t="n">
-        <v>886.4230694838916</v>
+        <v>988.2166956708016</v>
       </c>
       <c r="AD6" t="n">
-        <v>716208.3957746557</v>
+        <v>798455.1831398131</v>
       </c>
       <c r="AE6" t="n">
-        <v>979947.9239833102</v>
+        <v>1092481.606928492</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.728945124228425e-06</v>
+        <v>2.567212405920747e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.73697916666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>886423.0694838916</v>
+        <v>988216.6956708017</v>
       </c>
     </row>
     <row r="7">
@@ -9971,28 +9971,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>705.7919318042675</v>
+        <v>788.0387191694249</v>
       </c>
       <c r="AB7" t="n">
-        <v>965.6956584370674</v>
+        <v>1078.229341382249</v>
       </c>
       <c r="AC7" t="n">
-        <v>873.5310201582022</v>
+        <v>975.324646345112</v>
       </c>
       <c r="AD7" t="n">
-        <v>705791.9318042675</v>
+        <v>788038.7191694248</v>
       </c>
       <c r="AE7" t="n">
-        <v>965695.6584370674</v>
+        <v>1078229.341382249</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.738896460272101e-06</v>
+        <v>2.581988579547549e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.62955729166667</v>
       </c>
       <c r="AH7" t="n">
-        <v>873531.0201582022</v>
+        <v>975324.646345112</v>
       </c>
     </row>
     <row r="8">
@@ -10077,28 +10077,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>708.6898161032759</v>
+        <v>790.9366034684335</v>
       </c>
       <c r="AB8" t="n">
-        <v>969.6606715806031</v>
+        <v>1082.194354525785</v>
       </c>
       <c r="AC8" t="n">
-        <v>877.1176180122497</v>
+        <v>978.9112441991598</v>
       </c>
       <c r="AD8" t="n">
-        <v>708689.8161032759</v>
+        <v>790936.6034684335</v>
       </c>
       <c r="AE8" t="n">
-        <v>969660.6715806031</v>
+        <v>1082194.354525785</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.739394027074285e-06</v>
+        <v>2.58272738822889e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.623046875</v>
       </c>
       <c r="AH8" t="n">
-        <v>877117.6180122497</v>
+        <v>978911.2441991598</v>
       </c>
     </row>
   </sheetData>
@@ -10374,28 +10374,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1987.337879384801</v>
+        <v>2120.988725985128</v>
       </c>
       <c r="AB2" t="n">
-        <v>2719.163361733721</v>
+        <v>2902.030346311503</v>
       </c>
       <c r="AC2" t="n">
-        <v>2459.650226859601</v>
+        <v>2625.064643084704</v>
       </c>
       <c r="AD2" t="n">
-        <v>1987337.879384801</v>
+        <v>2120988.725985128</v>
       </c>
       <c r="AE2" t="n">
-        <v>2719163.361733721</v>
+        <v>2902030.346311503</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.873180842058981e-07</v>
+        <v>1.451794451441504e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.1484375</v>
       </c>
       <c r="AH2" t="n">
-        <v>2459650.226859601</v>
+        <v>2625064.643084704</v>
       </c>
     </row>
     <row r="3">
@@ -10480,28 +10480,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1127.832580395023</v>
+        <v>1228.049313000211</v>
       </c>
       <c r="AB3" t="n">
-        <v>1543.150292958283</v>
+        <v>1680.271247758908</v>
       </c>
       <c r="AC3" t="n">
-        <v>1395.874194823382</v>
+        <v>1519.908518148305</v>
       </c>
       <c r="AD3" t="n">
-        <v>1127832.580395023</v>
+        <v>1228049.313000211</v>
       </c>
       <c r="AE3" t="n">
-        <v>1543150.292958283</v>
+        <v>1680271.247758908</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.391274120435904e-06</v>
+        <v>2.04578856681995e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.8125</v>
       </c>
       <c r="AH3" t="n">
-        <v>1395874.194823382</v>
+        <v>1519908.518148305</v>
       </c>
     </row>
     <row r="4">
@@ -10586,28 +10586,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>949.1738763764006</v>
+        <v>1041.032102859943</v>
       </c>
       <c r="AB4" t="n">
-        <v>1298.701572254257</v>
+        <v>1424.386050227981</v>
       </c>
       <c r="AC4" t="n">
-        <v>1174.755316937414</v>
+        <v>1288.444644732599</v>
       </c>
       <c r="AD4" t="n">
-        <v>949173.8763764006</v>
+        <v>1041032.102859943</v>
       </c>
       <c r="AE4" t="n">
-        <v>1298701.572254257</v>
+        <v>1424386.050227981</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.539479086660767e-06</v>
+        <v>2.263715444776802e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.61848958333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1174755.316937414</v>
+        <v>1288444.644732599</v>
       </c>
     </row>
     <row r="5">
@@ -10692,28 +10692,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>860.5323591843534</v>
+        <v>944.1174204008202</v>
       </c>
       <c r="AB5" t="n">
-        <v>1177.418337844354</v>
+        <v>1291.783106113374</v>
       </c>
       <c r="AC5" t="n">
-        <v>1065.047184197505</v>
+        <v>1168.497139494889</v>
       </c>
       <c r="AD5" t="n">
-        <v>860532.3591843534</v>
+        <v>944117.4204008202</v>
       </c>
       <c r="AE5" t="n">
-        <v>1177418.337844355</v>
+        <v>1291783.106113374</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.618456733135858e-06</v>
+        <v>2.379847531056441e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.61263020833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1065047.184197505</v>
+        <v>1168497.139494889</v>
       </c>
     </row>
     <row r="6">
@@ -10798,28 +10798,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>807.3677767321425</v>
+        <v>882.5944213355139</v>
       </c>
       <c r="AB6" t="n">
-        <v>1104.676210677396</v>
+        <v>1207.604624589062</v>
       </c>
       <c r="AC6" t="n">
-        <v>999.2474635531441</v>
+        <v>1092.352534102017</v>
       </c>
       <c r="AD6" t="n">
-        <v>807367.7767321424</v>
+        <v>882594.4213355138</v>
       </c>
       <c r="AE6" t="n">
-        <v>1104676.210677396</v>
+        <v>1207604.624589062</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.667208366762458e-06</v>
+        <v>2.451534004068563e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.03645833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>999247.4635531441</v>
+        <v>1092352.534102017</v>
       </c>
     </row>
     <row r="7">
@@ -10904,28 +10904,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>755.7266161490143</v>
+        <v>839.2263365109096</v>
       </c>
       <c r="AB7" t="n">
-        <v>1034.018496520346</v>
+        <v>1148.266497667167</v>
       </c>
       <c r="AC7" t="n">
-        <v>935.3332224665178</v>
+        <v>1038.677554731964</v>
       </c>
       <c r="AD7" t="n">
-        <v>755726.6161490142</v>
+        <v>839226.3365109096</v>
       </c>
       <c r="AE7" t="n">
-        <v>1034018.496520346</v>
+        <v>1148266.497667167</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.700944497232065e-06</v>
+        <v>2.501141043392952e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.65885416666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>935333.2224665178</v>
+        <v>1038677.554731964</v>
       </c>
     </row>
     <row r="8">
@@ -11010,28 +11010,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>739.7327176185422</v>
+        <v>823.2324379804376</v>
       </c>
       <c r="AB8" t="n">
-        <v>1012.13493894995</v>
+        <v>1126.382940096771</v>
       </c>
       <c r="AC8" t="n">
-        <v>915.5382009168744</v>
+        <v>1018.88253318232</v>
       </c>
       <c r="AD8" t="n">
-        <v>739732.7176185423</v>
+        <v>823232.4379804375</v>
       </c>
       <c r="AE8" t="n">
-        <v>1012134.93894995</v>
+        <v>1126382.940096771</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.711474850095411e-06</v>
+        <v>2.51662532156357e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.544921875</v>
       </c>
       <c r="AH8" t="n">
-        <v>915538.2009168745</v>
+        <v>1018882.53318232</v>
       </c>
     </row>
     <row r="9">
@@ -11116,28 +11116,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>743.0720799986614</v>
+        <v>826.5718003605568</v>
       </c>
       <c r="AB9" t="n">
-        <v>1016.704001880699</v>
+        <v>1130.952003027521</v>
       </c>
       <c r="AC9" t="n">
-        <v>919.6711988942336</v>
+        <v>1023.015531159679</v>
       </c>
       <c r="AD9" t="n">
-        <v>743072.0799986614</v>
+        <v>826571.8003605568</v>
       </c>
       <c r="AE9" t="n">
-        <v>1016704.0018807</v>
+        <v>1130952.003027521</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.710694823957385e-06</v>
+        <v>2.515478337995376e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>18.5546875</v>
       </c>
       <c r="AH9" t="n">
-        <v>919671.1988942336</v>
+        <v>1023015.531159679</v>
       </c>
     </row>
   </sheetData>
@@ -11413,28 +11413,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2850.603272574871</v>
+        <v>3013.575930187105</v>
       </c>
       <c r="AB2" t="n">
-        <v>3900.32115727787</v>
+        <v>4123.307537269162</v>
       </c>
       <c r="AC2" t="n">
-        <v>3528.079980162248</v>
+        <v>3729.784853010513</v>
       </c>
       <c r="AD2" t="n">
-        <v>2850603.272574871</v>
+        <v>3013575.930187105</v>
       </c>
       <c r="AE2" t="n">
-        <v>3900321.15727787</v>
+        <v>4123307.537269162</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.053198498005721e-07</v>
+        <v>1.165114617763412e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.04361979166666</v>
       </c>
       <c r="AH2" t="n">
-        <v>3528079.980162248</v>
+        <v>3729784.853010512</v>
       </c>
     </row>
     <row r="3">
@@ -11519,28 +11519,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1413.1272663034</v>
+        <v>1524.607863157107</v>
       </c>
       <c r="AB3" t="n">
-        <v>1933.503068531369</v>
+        <v>2086.035739323438</v>
       </c>
       <c r="AC3" t="n">
-        <v>1748.972249359335</v>
+        <v>1886.947416131956</v>
       </c>
       <c r="AD3" t="n">
-        <v>1413127.2663034</v>
+        <v>1524607.863157107</v>
       </c>
       <c r="AE3" t="n">
-        <v>1933503.068531369</v>
+        <v>2086035.739323437</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.240495610637062e-06</v>
+        <v>1.794714944108861e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.697265625</v>
       </c>
       <c r="AH3" t="n">
-        <v>1748972.249359335</v>
+        <v>1886947.416131956</v>
       </c>
     </row>
     <row r="4">
@@ -11625,28 +11625,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1151.752701229159</v>
+        <v>1246.15464852078</v>
       </c>
       <c r="AB4" t="n">
-        <v>1575.878857564802</v>
+        <v>1705.043766569181</v>
       </c>
       <c r="AC4" t="n">
-        <v>1425.479191158684</v>
+        <v>1542.316782531773</v>
       </c>
       <c r="AD4" t="n">
-        <v>1151752.701229159</v>
+        <v>1246154.64852078</v>
       </c>
       <c r="AE4" t="n">
-        <v>1575878.857564802</v>
+        <v>1705043.766569181</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.407262792341703e-06</v>
+        <v>2.035989117613217e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.77083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1425479.191158684</v>
+        <v>1542316.782531773</v>
       </c>
     </row>
     <row r="5">
@@ -11731,28 +11731,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1038.066257904532</v>
+        <v>1132.212272140989</v>
       </c>
       <c r="AB5" t="n">
-        <v>1420.328050316142</v>
+        <v>1549.142780423476</v>
       </c>
       <c r="AC5" t="n">
-        <v>1284.773934636907</v>
+        <v>1401.294767695407</v>
       </c>
       <c r="AD5" t="n">
-        <v>1038066.257904532</v>
+        <v>1132212.272140989</v>
       </c>
       <c r="AE5" t="n">
-        <v>1420328.050316142</v>
+        <v>1549142.780423476</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.496951914330712e-06</v>
+        <v>2.165748873453877e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.46549479166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1284773.934636907</v>
+        <v>1401294.767695407</v>
       </c>
     </row>
     <row r="6">
@@ -11837,28 +11837,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>967.1073878211365</v>
+        <v>1052.927339904428</v>
       </c>
       <c r="AB6" t="n">
-        <v>1323.238993783631</v>
+        <v>1440.661638333067</v>
       </c>
       <c r="AC6" t="n">
-        <v>1196.950921394513</v>
+        <v>1303.166913551867</v>
       </c>
       <c r="AD6" t="n">
-        <v>967107.3878211365</v>
+        <v>1052927.339904428</v>
       </c>
       <c r="AE6" t="n">
-        <v>1323238.993783631</v>
+        <v>1440661.638333067</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.552478233295575e-06</v>
+        <v>2.246082825128577e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.73307291666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1196950.921394513</v>
+        <v>1303166.913551867</v>
       </c>
     </row>
     <row r="7">
@@ -11943,28 +11943,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>923.5004781956009</v>
+        <v>1009.1498380783</v>
       </c>
       <c r="AB7" t="n">
-        <v>1263.574096232896</v>
+        <v>1380.763329007485</v>
       </c>
       <c r="AC7" t="n">
-        <v>1142.98035792581</v>
+        <v>1248.985214800513</v>
       </c>
       <c r="AD7" t="n">
-        <v>923500.4781956009</v>
+        <v>1009149.8380783</v>
       </c>
       <c r="AE7" t="n">
-        <v>1263574.096232896</v>
+        <v>1380763.329007485</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.5891820712554e-06</v>
+        <v>2.299184928777956e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>20</v>
+        <v>19.27734375</v>
       </c>
       <c r="AH7" t="n">
-        <v>1142980.35792581</v>
+        <v>1248985.214800513</v>
       </c>
     </row>
     <row r="8">
@@ -12049,28 +12049,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>876.5877764729009</v>
+        <v>962.3223877016212</v>
       </c>
       <c r="AB8" t="n">
-        <v>1199.386068093566</v>
+        <v>1316.691945520804</v>
       </c>
       <c r="AC8" t="n">
-        <v>1084.918345103634</v>
+        <v>1191.02871422905</v>
       </c>
       <c r="AD8" t="n">
-        <v>876587.776472901</v>
+        <v>962322.3877016212</v>
       </c>
       <c r="AE8" t="n">
-        <v>1199386.068093566</v>
+        <v>1316691.945520804</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.618733366433311e-06</v>
+        <v>2.341938930177712e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.92578125</v>
       </c>
       <c r="AH8" t="n">
-        <v>1084918.345103634</v>
+        <v>1191028.71422905</v>
       </c>
     </row>
     <row r="9">
@@ -12155,28 +12155,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>845.7269608770973</v>
+        <v>931.4615721058175</v>
       </c>
       <c r="AB9" t="n">
-        <v>1157.160938712292</v>
+        <v>1274.46681613953</v>
       </c>
       <c r="AC9" t="n">
-        <v>1046.723122807168</v>
+        <v>1152.833491932583</v>
       </c>
       <c r="AD9" t="n">
-        <v>845726.9608770973</v>
+        <v>931461.5721058175</v>
       </c>
       <c r="AE9" t="n">
-        <v>1157160.938712292</v>
+        <v>1274466.81613953</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.639343983133828e-06</v>
+        <v>2.37175780376544e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>18.68815104166667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1046723.122807168</v>
+        <v>1152833.491932583</v>
       </c>
     </row>
     <row r="10">
@@ -12261,28 +12261,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>817.9751950262863</v>
+        <v>903.5392140544144</v>
       </c>
       <c r="AB10" t="n">
-        <v>1119.189748353712</v>
+        <v>1236.262214006102</v>
       </c>
       <c r="AC10" t="n">
-        <v>1012.37584956351</v>
+        <v>1118.275083406274</v>
       </c>
       <c r="AD10" t="n">
-        <v>817975.1950262863</v>
+        <v>903539.2140544144</v>
       </c>
       <c r="AE10" t="n">
-        <v>1119189.748353712</v>
+        <v>1236262.214006102</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.656378328443388e-06</v>
+        <v>2.396402626228356e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>19</v>
+        <v>18.49609375</v>
       </c>
       <c r="AH10" t="n">
-        <v>1012375.84956351</v>
+        <v>1118275.083406274</v>
       </c>
     </row>
     <row r="11">
@@ -12367,28 +12367,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>809.6815215562278</v>
+        <v>886.8342270851699</v>
       </c>
       <c r="AB11" t="n">
-        <v>1107.841978420927</v>
+        <v>1213.40571386277</v>
       </c>
       <c r="AC11" t="n">
-        <v>1002.111094866415</v>
+        <v>1097.599975557322</v>
       </c>
       <c r="AD11" t="n">
-        <v>809681.5215562278</v>
+        <v>886834.2270851699</v>
       </c>
       <c r="AE11" t="n">
-        <v>1107841.978420927</v>
+        <v>1213405.71386277</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.65986048742932e-06</v>
+        <v>2.401440518113041e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>19</v>
+        <v>18.45703125</v>
       </c>
       <c r="AH11" t="n">
-        <v>1002111.094866415</v>
+        <v>1097599.975557322</v>
       </c>
     </row>
     <row r="12">
@@ -12473,28 +12473,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>811.0061843932593</v>
+        <v>888.1588899222014</v>
       </c>
       <c r="AB12" t="n">
-        <v>1109.654440554554</v>
+        <v>1215.218175996396</v>
       </c>
       <c r="AC12" t="n">
-        <v>1003.750578157815</v>
+        <v>1099.239458848721</v>
       </c>
       <c r="AD12" t="n">
-        <v>811006.1843932593</v>
+        <v>888158.8899222014</v>
       </c>
       <c r="AE12" t="n">
-        <v>1109654.440554554</v>
+        <v>1215218.175996396</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.662119185149924e-06</v>
+        <v>2.404708339876079e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>19</v>
+        <v>18.43098958333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>1003750.578157815</v>
+        <v>1099239.458848721</v>
       </c>
     </row>
   </sheetData>
@@ -12770,28 +12770,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1360.76335774207</v>
+        <v>1473.934094806263</v>
       </c>
       <c r="AB2" t="n">
-        <v>1861.856458705153</v>
+        <v>2016.701653896931</v>
       </c>
       <c r="AC2" t="n">
-        <v>1684.163491418285</v>
+        <v>1824.230478507556</v>
       </c>
       <c r="AD2" t="n">
-        <v>1360763.35774207</v>
+        <v>1473934.094806263</v>
       </c>
       <c r="AE2" t="n">
-        <v>1861856.458705153</v>
+        <v>2016701.653896931</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.210073962627025e-06</v>
+        <v>1.817149451521139e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.38932291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1684163.491418285</v>
+        <v>1824230.478507556</v>
       </c>
     </row>
     <row r="3">
@@ -12876,28 +12876,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>880.2116499989745</v>
+        <v>969.0949593635705</v>
       </c>
       <c r="AB3" t="n">
-        <v>1204.344411725956</v>
+        <v>1325.958476853458</v>
       </c>
       <c r="AC3" t="n">
-        <v>1089.403471378829</v>
+        <v>1199.410860816974</v>
       </c>
       <c r="AD3" t="n">
-        <v>880211.6499989745</v>
+        <v>969094.9593635706</v>
       </c>
       <c r="AE3" t="n">
-        <v>1204344.411725956</v>
+        <v>1325958.476853458</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.565307286615724e-06</v>
+        <v>2.350597868547412e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.171875</v>
       </c>
       <c r="AH3" t="n">
-        <v>1089403.471378829</v>
+        <v>1199410.860816973</v>
       </c>
     </row>
     <row r="4">
@@ -12982,28 +12982,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>748.5119301260369</v>
+        <v>829.4700224580262</v>
       </c>
       <c r="AB4" t="n">
-        <v>1024.147044814225</v>
+        <v>1134.917478361814</v>
       </c>
       <c r="AC4" t="n">
-        <v>926.4038882565593</v>
+        <v>1026.602547093647</v>
       </c>
       <c r="AD4" t="n">
-        <v>748511.9301260369</v>
+        <v>829470.0224580262</v>
       </c>
       <c r="AE4" t="n">
-        <v>1024147.044814225</v>
+        <v>1134917.478361814</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.695223515165332e-06</v>
+        <v>2.545691070073788e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.55078125</v>
       </c>
       <c r="AH4" t="n">
-        <v>926403.8882565593</v>
+        <v>1026602.547093646</v>
       </c>
     </row>
     <row r="5">
@@ -13088,28 +13088,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>676.677601977392</v>
+        <v>757.5503534548096</v>
       </c>
       <c r="AB5" t="n">
-        <v>925.8601479343549</v>
+        <v>1036.513814359746</v>
       </c>
       <c r="AC5" t="n">
-        <v>837.4973548683785</v>
+        <v>937.5903906735269</v>
       </c>
       <c r="AD5" t="n">
-        <v>676677.601977392</v>
+        <v>757550.3534548096</v>
       </c>
       <c r="AE5" t="n">
-        <v>925860.147934355</v>
+        <v>1036513.814359746</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.760487075118543e-06</v>
+        <v>2.643696353912664e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.82486979166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>837497.3548683785</v>
+        <v>937590.3906735269</v>
       </c>
     </row>
     <row r="6">
@@ -13194,28 +13194,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>671.1779133399897</v>
+        <v>752.0506648174076</v>
       </c>
       <c r="AB6" t="n">
-        <v>918.3352313115226</v>
+        <v>1028.988897736914</v>
       </c>
       <c r="AC6" t="n">
-        <v>830.6906057267425</v>
+        <v>930.7836415318907</v>
       </c>
       <c r="AD6" t="n">
-        <v>671177.9133399897</v>
+        <v>752050.6648174075</v>
       </c>
       <c r="AE6" t="n">
-        <v>918335.2313115227</v>
+        <v>1028988.897736914</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.766901434365115e-06</v>
+        <v>2.653328698502133e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.75651041666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>830690.6057267425</v>
+        <v>930783.6415318907</v>
       </c>
     </row>
   </sheetData>
@@ -13491,28 +13491,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>988.9301074481209</v>
+        <v>1083.143160007066</v>
       </c>
       <c r="AB2" t="n">
-        <v>1353.097801527714</v>
+        <v>1482.004256425398</v>
       </c>
       <c r="AC2" t="n">
-        <v>1223.9600464346</v>
+        <v>1340.563850198195</v>
       </c>
       <c r="AD2" t="n">
-        <v>988930.107448121</v>
+        <v>1083143.160007066</v>
       </c>
       <c r="AE2" t="n">
-        <v>1353097.801527714</v>
+        <v>1482004.256425398</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.418734055949952e-06</v>
+        <v>2.175978745841024e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.33268229166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1223960.0464346</v>
+        <v>1340563.850198195</v>
       </c>
     </row>
     <row r="3">
@@ -13597,28 +13597,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>681.6070736653577</v>
+        <v>767.8765038690992</v>
       </c>
       <c r="AB3" t="n">
-        <v>932.6048685707722</v>
+        <v>1050.642508914182</v>
       </c>
       <c r="AC3" t="n">
-        <v>843.5983688335307</v>
+        <v>950.3706624494343</v>
       </c>
       <c r="AD3" t="n">
-        <v>681607.0736653577</v>
+        <v>767876.5038690992</v>
       </c>
       <c r="AE3" t="n">
-        <v>932604.8685707721</v>
+        <v>1050642.508914182</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.730543738576314e-06</v>
+        <v>2.654215832839051e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.94791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>843598.3688335307</v>
+        <v>950370.6624494344</v>
       </c>
     </row>
     <row r="4">
@@ -13703,28 +13703,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>620.6326732645805</v>
+        <v>691.3564907018556</v>
       </c>
       <c r="AB4" t="n">
-        <v>849.1770039417341</v>
+        <v>945.9444510740324</v>
       </c>
       <c r="AC4" t="n">
-        <v>768.1327425129447</v>
+        <v>855.6648403049014</v>
       </c>
       <c r="AD4" t="n">
-        <v>620632.6732645805</v>
+        <v>691356.4907018556</v>
       </c>
       <c r="AE4" t="n">
-        <v>849177.0039417341</v>
+        <v>945944.4510740323</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.807753755226652e-06</v>
+        <v>2.772636444857611e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.09830729166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>768132.7425129446</v>
+        <v>855664.8403049015</v>
       </c>
     </row>
     <row r="5">
@@ -13809,28 +13809,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>624.4643786752379</v>
+        <v>695.1881961125129</v>
       </c>
       <c r="AB5" t="n">
-        <v>854.4197123275077</v>
+        <v>951.1871594598058</v>
       </c>
       <c r="AC5" t="n">
-        <v>772.8750941685673</v>
+        <v>860.4071919605242</v>
       </c>
       <c r="AD5" t="n">
-        <v>624464.3786752379</v>
+        <v>695188.1961125128</v>
       </c>
       <c r="AE5" t="n">
-        <v>854419.7123275077</v>
+        <v>951187.1594598058</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.807117408935578e-06</v>
+        <v>2.771660450802512e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.10481770833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>772875.0941685673</v>
+        <v>860407.1919605242</v>
       </c>
     </row>
   </sheetData>
@@ -24991,28 +24991,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>763.7251908912523</v>
+        <v>847.9908005362371</v>
       </c>
       <c r="AB2" t="n">
-        <v>1044.962499354889</v>
+        <v>1160.258424007484</v>
       </c>
       <c r="AC2" t="n">
-        <v>945.2327450305366</v>
+        <v>1049.524988453135</v>
       </c>
       <c r="AD2" t="n">
-        <v>763725.1908912522</v>
+        <v>847990.8005362371</v>
       </c>
       <c r="AE2" t="n">
-        <v>1044962.499354889</v>
+        <v>1160258.424007484</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.593344810605369e-06</v>
+        <v>2.489569837262052e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.412109375</v>
       </c>
       <c r="AH2" t="n">
-        <v>945232.7450305367</v>
+        <v>1049524.988453135</v>
       </c>
     </row>
     <row r="3">
@@ -25097,28 +25097,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>578.6674142498313</v>
+        <v>655.3500151507453</v>
       </c>
       <c r="AB3" t="n">
-        <v>791.7582851811896</v>
+        <v>896.6788027314122</v>
       </c>
       <c r="AC3" t="n">
-        <v>716.1939856832288</v>
+        <v>811.1010362953293</v>
       </c>
       <c r="AD3" t="n">
-        <v>578667.4142498312</v>
+        <v>655350.0151507453</v>
       </c>
       <c r="AE3" t="n">
-        <v>791758.2851811897</v>
+        <v>896678.8027314122</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.827798977118051e-06</v>
+        <v>2.855899847743978e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.53776041666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>716193.9856832288</v>
+        <v>811101.0362953293</v>
       </c>
     </row>
     <row r="4">
@@ -25203,28 +25203,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>581.9386471464879</v>
+        <v>658.621248047402</v>
       </c>
       <c r="AB4" t="n">
-        <v>796.2341303470058</v>
+        <v>901.1546478972282</v>
       </c>
       <c r="AC4" t="n">
-        <v>720.2426624683075</v>
+        <v>815.1497130804078</v>
       </c>
       <c r="AD4" t="n">
-        <v>581938.647146488</v>
+        <v>658621.248047402</v>
       </c>
       <c r="AE4" t="n">
-        <v>796234.1303470058</v>
+        <v>901154.6478972281</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.829444654468397e-06</v>
+        <v>2.858471186142306e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.521484375</v>
       </c>
       <c r="AH4" t="n">
-        <v>720242.6624683074</v>
+        <v>815149.7130804078</v>
       </c>
     </row>
   </sheetData>
@@ -25500,28 +25500,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>520.0276285016727</v>
+        <v>600.0663540518921</v>
       </c>
       <c r="AB2" t="n">
-        <v>711.5247433157938</v>
+        <v>821.0372586729655</v>
       </c>
       <c r="AC2" t="n">
-        <v>643.6178204449828</v>
+        <v>742.6786150382469</v>
       </c>
       <c r="AD2" t="n">
-        <v>520027.6285016726</v>
+        <v>600066.3540518921</v>
       </c>
       <c r="AE2" t="n">
-        <v>711524.7433157938</v>
+        <v>821037.2586729656</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.788333859142237e-06</v>
+        <v>2.914405008250897e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.435546875</v>
       </c>
       <c r="AH2" t="n">
-        <v>643617.8204449828</v>
+        <v>742678.6150382468</v>
       </c>
     </row>
   </sheetData>
@@ -25797,28 +25797,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1806.496751112433</v>
+        <v>1939.1665404854</v>
       </c>
       <c r="AB2" t="n">
-        <v>2471.728551883957</v>
+        <v>2653.253210682075</v>
       </c>
       <c r="AC2" t="n">
-        <v>2235.830247984962</v>
+        <v>2400.030448118847</v>
       </c>
       <c r="AD2" t="n">
-        <v>1806496.751112433</v>
+        <v>1939166.5404854</v>
       </c>
       <c r="AE2" t="n">
-        <v>2471728.551883957</v>
+        <v>2653253.210682075</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.038731496650821e-06</v>
+        <v>1.534601974460375e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.859375</v>
       </c>
       <c r="AH2" t="n">
-        <v>2235830.247984962</v>
+        <v>2400030.448118847</v>
       </c>
     </row>
     <row r="3">
@@ -25903,28 +25903,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1068.014541467176</v>
+        <v>1159.198442152589</v>
       </c>
       <c r="AB3" t="n">
-        <v>1461.304613111576</v>
+        <v>1586.066448779144</v>
       </c>
       <c r="AC3" t="n">
-        <v>1321.839751790112</v>
+        <v>1434.694492965904</v>
       </c>
       <c r="AD3" t="n">
-        <v>1068014.541467176</v>
+        <v>1159198.442152589</v>
       </c>
       <c r="AE3" t="n">
-        <v>1461304.613111576</v>
+        <v>1586066.448779144</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.430570008707478e-06</v>
+        <v>2.113496670741929e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.40885416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1321839.751790112</v>
+        <v>1434694.492965904</v>
       </c>
     </row>
     <row r="4">
@@ -26009,28 +26009,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>901.9999555799496</v>
+        <v>984.8866606261411</v>
       </c>
       <c r="AB4" t="n">
-        <v>1234.156132654048</v>
+        <v>1347.565379201597</v>
       </c>
       <c r="AC4" t="n">
-        <v>1116.370003502557</v>
+        <v>1218.955630730484</v>
       </c>
       <c r="AD4" t="n">
-        <v>901999.9555799497</v>
+        <v>984886.6606261411</v>
       </c>
       <c r="AE4" t="n">
-        <v>1234156.132654049</v>
+        <v>1347565.379201597</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.575133702022173e-06</v>
+        <v>2.3270722963115e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.3515625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1116370.003502557</v>
+        <v>1218955.630730484</v>
       </c>
     </row>
     <row r="5">
@@ -26115,28 +26115,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>817.4307695846202</v>
+        <v>900.2321337762398</v>
       </c>
       <c r="AB5" t="n">
-        <v>1118.444841446068</v>
+        <v>1231.737320871419</v>
       </c>
       <c r="AC5" t="n">
-        <v>1011.702035525649</v>
+        <v>1114.182039721638</v>
       </c>
       <c r="AD5" t="n">
-        <v>817430.7695846201</v>
+        <v>900232.1337762398</v>
       </c>
       <c r="AE5" t="n">
-        <v>1118444.841446068</v>
+        <v>1231737.320871419</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.651945473674395e-06</v>
+        <v>2.440552533330754e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.404296875</v>
       </c>
       <c r="AH5" t="n">
-        <v>1011702.035525649</v>
+        <v>1114182.039721638</v>
       </c>
     </row>
     <row r="6">
@@ -26221,28 +26221,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>756.5004477095489</v>
+        <v>839.3870632471893</v>
       </c>
       <c r="AB6" t="n">
-        <v>1035.077287000508</v>
+        <v>1148.486411078509</v>
       </c>
       <c r="AC6" t="n">
-        <v>936.2909634692755</v>
+        <v>1038.876479915977</v>
       </c>
       <c r="AD6" t="n">
-        <v>756500.4477095489</v>
+        <v>839387.0632471893</v>
       </c>
       <c r="AE6" t="n">
-        <v>1035077.287000508</v>
+        <v>1148486.411078508</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.699214256229609e-06</v>
+        <v>2.510386525342603e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.86393229166667</v>
       </c>
       <c r="AH6" t="n">
-        <v>936290.9634692755</v>
+        <v>1038876.479915977</v>
       </c>
     </row>
     <row r="7">
@@ -26327,28 +26327,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>724.8540423074443</v>
+        <v>807.7406578450847</v>
       </c>
       <c r="AB7" t="n">
-        <v>991.7772789884771</v>
+        <v>1105.186403066477</v>
       </c>
       <c r="AC7" t="n">
-        <v>897.1234474499696</v>
+        <v>999.7089638966706</v>
       </c>
       <c r="AD7" t="n">
-        <v>724854.0423074443</v>
+        <v>807740.6578450847</v>
       </c>
       <c r="AE7" t="n">
-        <v>991777.2789884771</v>
+        <v>1105186.403066477</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.722553217616246e-06</v>
+        <v>2.544867058898453e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.61002604166667</v>
       </c>
       <c r="AH7" t="n">
-        <v>897123.4474499696</v>
+        <v>999708.9638966706</v>
       </c>
     </row>
     <row r="8">
@@ -26433,28 +26433,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>723.6410236680887</v>
+        <v>806.5276392057291</v>
       </c>
       <c r="AB8" t="n">
-        <v>990.1175733715054</v>
+        <v>1103.526697449505</v>
       </c>
       <c r="AC8" t="n">
-        <v>895.6221418076702</v>
+        <v>998.2076582543713</v>
       </c>
       <c r="AD8" t="n">
-        <v>723641.0236680887</v>
+        <v>806527.6392057291</v>
       </c>
       <c r="AE8" t="n">
-        <v>990117.5733715054</v>
+        <v>1103526.697449505</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.72678771272015e-06</v>
+        <v>2.551123020682848e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.564453125</v>
       </c>
       <c r="AH8" t="n">
-        <v>895622.1418076702</v>
+        <v>998207.6582543713</v>
       </c>
     </row>
   </sheetData>
@@ -26730,28 +26730,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2605.784613108822</v>
+        <v>2767.579354027084</v>
       </c>
       <c r="AB2" t="n">
-        <v>3565.349466759417</v>
+        <v>3786.724169164</v>
       </c>
       <c r="AC2" t="n">
-        <v>3225.077517651169</v>
+        <v>3425.324529159596</v>
       </c>
       <c r="AD2" t="n">
-        <v>2605784.613108822</v>
+        <v>2767579.354027084</v>
       </c>
       <c r="AE2" t="n">
-        <v>3565349.466759417</v>
+        <v>3786724.169164</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.47129581372209e-07</v>
+        <v>1.230175330291331e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.46158854166666</v>
       </c>
       <c r="AH2" t="n">
-        <v>3225077.517651169</v>
+        <v>3425324.529159596</v>
       </c>
     </row>
     <row r="3">
@@ -26836,28 +26836,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1341.918410637762</v>
+        <v>1444.180953380222</v>
       </c>
       <c r="AB3" t="n">
-        <v>1836.071970696649</v>
+        <v>1975.992093181861</v>
       </c>
       <c r="AC3" t="n">
-        <v>1660.839838756555</v>
+        <v>1787.406181130904</v>
       </c>
       <c r="AD3" t="n">
-        <v>1341918.410637762</v>
+        <v>1444180.953380222</v>
       </c>
       <c r="AE3" t="n">
-        <v>1836071.970696649</v>
+        <v>1975992.093181861</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.276720218189952e-06</v>
+        <v>1.854013542482307e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.19596354166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1660839.838756555</v>
+        <v>1787406.181130904</v>
       </c>
     </row>
     <row r="4">
@@ -26942,28 +26942,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1101.978763561096</v>
+        <v>1195.626982608277</v>
       </c>
       <c r="AB4" t="n">
-        <v>1507.775960176205</v>
+        <v>1635.909584944398</v>
       </c>
       <c r="AC4" t="n">
-        <v>1363.875938713838</v>
+        <v>1479.780670170826</v>
       </c>
       <c r="AD4" t="n">
-        <v>1101978.763561097</v>
+        <v>1195626.982608277</v>
       </c>
       <c r="AE4" t="n">
-        <v>1507775.960176205</v>
+        <v>1635909.584944398</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.438991035278165e-06</v>
+        <v>2.089658195198581e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.46484375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1363875.938713838</v>
+        <v>1479780.670170826</v>
       </c>
     </row>
     <row r="5">
@@ -27048,28 +27048,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>997.6585738668351</v>
+        <v>1082.863150927881</v>
       </c>
       <c r="AB5" t="n">
-        <v>1365.04047435456</v>
+        <v>1481.621135650129</v>
       </c>
       <c r="AC5" t="n">
-        <v>1234.762927328499</v>
+        <v>1340.217293932004</v>
       </c>
       <c r="AD5" t="n">
-        <v>997658.5738668351</v>
+        <v>1082863.150927881</v>
       </c>
       <c r="AE5" t="n">
-        <v>1365040.47435456</v>
+        <v>1481621.135650129</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.52392225240913e-06</v>
+        <v>2.212992677175812e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.27018229166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1234762.927328499</v>
+        <v>1340217.293932004</v>
       </c>
     </row>
     <row r="6">
@@ -27154,28 +27154,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>928.5464403541299</v>
+        <v>1013.836268761196</v>
       </c>
       <c r="AB6" t="n">
-        <v>1270.478204270335</v>
+        <v>1387.175510218553</v>
       </c>
       <c r="AC6" t="n">
-        <v>1149.225547582132</v>
+        <v>1254.78542643635</v>
       </c>
       <c r="AD6" t="n">
-        <v>928546.4403541299</v>
+        <v>1013836.268761196</v>
       </c>
       <c r="AE6" t="n">
-        <v>1270478.204270335</v>
+        <v>1387175.510218553</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.578581896059896e-06</v>
+        <v>2.292367718090767e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.56705729166667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1149225.547582132</v>
+        <v>1254785.42643635</v>
       </c>
     </row>
     <row r="7">
@@ -27260,28 +27260,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>883.3762226802435</v>
+        <v>960.1371577551541</v>
       </c>
       <c r="AB7" t="n">
-        <v>1208.674319679562</v>
+        <v>1313.702017502507</v>
       </c>
       <c r="AC7" t="n">
-        <v>1093.320138994406</v>
+        <v>1188.324140744429</v>
       </c>
       <c r="AD7" t="n">
-        <v>883376.2226802434</v>
+        <v>960137.1577551542</v>
       </c>
       <c r="AE7" t="n">
-        <v>1208674.319679562</v>
+        <v>1313702.017502507</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.616634877143156e-06</v>
+        <v>2.347627078172186e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>20</v>
+        <v>19.10807291666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1093320.138994406</v>
+        <v>1188324.140744429</v>
       </c>
     </row>
     <row r="8">
@@ -27366,28 +27366,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>839.7771787828905</v>
+        <v>924.9816663353854</v>
       </c>
       <c r="AB8" t="n">
-        <v>1149.020184365138</v>
+        <v>1265.600723191158</v>
       </c>
       <c r="AC8" t="n">
-        <v>1039.359310629286</v>
+        <v>1144.813566451564</v>
       </c>
       <c r="AD8" t="n">
-        <v>839777.1787828904</v>
+        <v>924981.6663353854</v>
       </c>
       <c r="AE8" t="n">
-        <v>1149020.184365138</v>
+        <v>1265600.723191158</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.64206679467511e-06</v>
+        <v>2.384558520820117e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.81184895833333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1039359.310629286</v>
+        <v>1144813.566451564</v>
       </c>
     </row>
     <row r="9">
@@ -27472,28 +27472,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>807.9012418610747</v>
+        <v>893.1057294135694</v>
       </c>
       <c r="AB9" t="n">
-        <v>1105.406121201622</v>
+        <v>1221.986660027642</v>
       </c>
       <c r="AC9" t="n">
-        <v>999.9077124413733</v>
+        <v>1105.361968263652</v>
       </c>
       <c r="AD9" t="n">
-        <v>807901.2418610747</v>
+        <v>893105.7294135694</v>
       </c>
       <c r="AE9" t="n">
-        <v>1105406.121201622</v>
+        <v>1221986.660027642</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.663323322761519e-06</v>
+        <v>2.415426592287043e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>18.57096354166667</v>
       </c>
       <c r="AH9" t="n">
-        <v>999907.7124413733</v>
+        <v>1105361.968263652</v>
       </c>
     </row>
     <row r="10">
@@ -27578,28 +27578,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>792.9895781305014</v>
+        <v>869.6651723508409</v>
       </c>
       <c r="AB10" t="n">
-        <v>1085.003325029277</v>
+        <v>1189.914255730024</v>
       </c>
       <c r="AC10" t="n">
-        <v>981.4521305002129</v>
+        <v>1076.350509218297</v>
       </c>
       <c r="AD10" t="n">
-        <v>792989.5781305014</v>
+        <v>869665.1723508409</v>
       </c>
       <c r="AE10" t="n">
-        <v>1085003.325029277</v>
+        <v>1189914.255730024</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.673192425087352e-06</v>
+        <v>2.429758196896689e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>19</v>
+        <v>18.46354166666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>981452.1305002129</v>
+        <v>1076350.509218297</v>
       </c>
     </row>
     <row r="11">
@@ -27684,28 +27684,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>795.9433452314395</v>
+        <v>872.6189394517788</v>
       </c>
       <c r="AB11" t="n">
-        <v>1089.044799487787</v>
+        <v>1193.955730188535</v>
       </c>
       <c r="AC11" t="n">
-        <v>985.1078923086483</v>
+        <v>1080.006271026732</v>
       </c>
       <c r="AD11" t="n">
-        <v>795943.3452314395</v>
+        <v>872618.9394517788</v>
       </c>
       <c r="AE11" t="n">
-        <v>1089044.799487788</v>
+        <v>1193955.730188535</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.672812844228666e-06</v>
+        <v>2.429206981334779e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>19</v>
+        <v>18.466796875</v>
       </c>
       <c r="AH11" t="n">
-        <v>985107.8923086483</v>
+        <v>1080006.271026732</v>
       </c>
     </row>
   </sheetData>
@@ -27981,28 +27981,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>505.6387978550824</v>
+        <v>591.0267654982157</v>
       </c>
       <c r="AB2" t="n">
-        <v>691.8373104347221</v>
+        <v>808.6688948153244</v>
       </c>
       <c r="AC2" t="n">
-        <v>625.8093285265952</v>
+        <v>731.4906704680712</v>
       </c>
       <c r="AD2" t="n">
-        <v>505638.7978550824</v>
+        <v>591026.7654982157</v>
       </c>
       <c r="AE2" t="n">
-        <v>691837.3104347221</v>
+        <v>808668.8948153243</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.685138821692609e-06</v>
+        <v>2.809026016805285e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.5546875</v>
       </c>
       <c r="AH2" t="n">
-        <v>625809.3285265953</v>
+        <v>731490.6704680712</v>
       </c>
     </row>
   </sheetData>
@@ -28278,28 +28278,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1106.986903479849</v>
+        <v>1210.069343964863</v>
       </c>
       <c r="AB2" t="n">
-        <v>1514.628318156582</v>
+        <v>1655.670260904494</v>
       </c>
       <c r="AC2" t="n">
-        <v>1370.074317265913</v>
+        <v>1497.655414951574</v>
       </c>
       <c r="AD2" t="n">
-        <v>1106986.903479849</v>
+        <v>1210069.343964863</v>
       </c>
       <c r="AE2" t="n">
-        <v>1514628.318156582</v>
+        <v>1655670.260904494</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.343604171109534e-06</v>
+        <v>2.044840084984688e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.31901041666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1370074.317265913</v>
+        <v>1497655.414951574</v>
       </c>
     </row>
     <row r="3">
@@ -28384,28 +28384,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>750.8285730421484</v>
+        <v>830.1687314542866</v>
       </c>
       <c r="AB3" t="n">
-        <v>1027.316777855121</v>
+        <v>1135.873482835363</v>
       </c>
       <c r="AC3" t="n">
-        <v>929.2711064247807</v>
+        <v>1027.467311842001</v>
       </c>
       <c r="AD3" t="n">
-        <v>750828.5730421484</v>
+        <v>830168.7314542866</v>
       </c>
       <c r="AE3" t="n">
-        <v>1027316.777855121</v>
+        <v>1135873.482835363</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.672502920835865e-06</v>
+        <v>2.545393270069225e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.341796875</v>
       </c>
       <c r="AH3" t="n">
-        <v>929271.1064247807</v>
+        <v>1027467.311842001</v>
       </c>
     </row>
     <row r="4">
@@ -28490,28 +28490,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>649.7857075529006</v>
+        <v>721.2686658437943</v>
       </c>
       <c r="AB4" t="n">
-        <v>889.0654715961149</v>
+        <v>986.8716087352652</v>
       </c>
       <c r="AC4" t="n">
-        <v>804.2143107982073</v>
+        <v>892.6859674805729</v>
       </c>
       <c r="AD4" t="n">
-        <v>649785.7075529005</v>
+        <v>721268.6658437944</v>
       </c>
       <c r="AE4" t="n">
-        <v>889065.4715961149</v>
+        <v>986871.6087352652</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.783808026796634e-06</v>
+        <v>2.714789247862372e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.072265625</v>
       </c>
       <c r="AH4" t="n">
-        <v>804214.3107982073</v>
+        <v>892685.9674805729</v>
       </c>
     </row>
     <row r="5">
@@ -28596,28 +28596,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>633.7635795144586</v>
+        <v>713.1036484180457</v>
       </c>
       <c r="AB5" t="n">
-        <v>867.1432891675163</v>
+        <v>975.6998716782097</v>
       </c>
       <c r="AC5" t="n">
-        <v>784.3843506926178</v>
+        <v>882.5804453286112</v>
       </c>
       <c r="AD5" t="n">
-        <v>633763.5795144585</v>
+        <v>713103.6484180457</v>
       </c>
       <c r="AE5" t="n">
-        <v>867143.2891675163</v>
+        <v>975699.8716782096</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.795408840657334e-06</v>
+        <v>2.732444603294333e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.94856770833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>784384.3506926178</v>
+        <v>882580.4453286112</v>
       </c>
     </row>
   </sheetData>
@@ -28893,28 +28893,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1500.252505271538</v>
+        <v>1622.660481712434</v>
       </c>
       <c r="AB2" t="n">
-        <v>2052.711664181844</v>
+        <v>2220.195657807068</v>
       </c>
       <c r="AC2" t="n">
-        <v>1856.803743951244</v>
+        <v>2008.303300290137</v>
       </c>
       <c r="AD2" t="n">
-        <v>1500252.505271538</v>
+        <v>1622660.481712434</v>
       </c>
       <c r="AE2" t="n">
-        <v>2052711.664181844</v>
+        <v>2220195.657807068</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.149209539438291e-06</v>
+        <v>1.715667211098778e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.50260416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1856803.743951244</v>
+        <v>2008303.300290137</v>
       </c>
     </row>
     <row r="3">
@@ -28999,28 +28999,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>938.269723089028</v>
+        <v>1028.098155772371</v>
       </c>
       <c r="AB3" t="n">
-        <v>1283.782028669182</v>
+        <v>1406.689253217291</v>
       </c>
       <c r="AC3" t="n">
-        <v>1161.259673652388</v>
+        <v>1272.436805190998</v>
       </c>
       <c r="AD3" t="n">
-        <v>938269.723089028</v>
+        <v>1028098.155772371</v>
       </c>
       <c r="AE3" t="n">
-        <v>1283782.028669182</v>
+        <v>1406689.253217291</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.519198461294048e-06</v>
+        <v>2.268027629206667e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.55924479166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1161259.673652388</v>
+        <v>1272436.805190999</v>
       </c>
     </row>
     <row r="4">
@@ -29105,28 +29105,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>797.7359179733119</v>
+        <v>887.3936689475116</v>
       </c>
       <c r="AB4" t="n">
-        <v>1091.497476595946</v>
+        <v>1214.171166899659</v>
       </c>
       <c r="AC4" t="n">
-        <v>987.3264893559576</v>
+        <v>1098.29237483069</v>
       </c>
       <c r="AD4" t="n">
-        <v>797735.9179733119</v>
+        <v>887393.6689475116</v>
       </c>
       <c r="AE4" t="n">
-        <v>1091497.476595946</v>
+        <v>1214171.166899659</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.653328249935257e-06</v>
+        <v>2.468271425055952e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.81119791666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>987326.4893559576</v>
+        <v>1098292.37483069</v>
       </c>
     </row>
     <row r="5">
@@ -29211,28 +29211,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>730.5068020927736</v>
+        <v>804.0028819786054</v>
       </c>
       <c r="AB5" t="n">
-        <v>999.5116343089262</v>
+        <v>1100.072213226927</v>
       </c>
       <c r="AC5" t="n">
-        <v>904.1196467538709</v>
+        <v>995.082865157597</v>
       </c>
       <c r="AD5" t="n">
-        <v>730506.8020927736</v>
+        <v>804002.8819786054</v>
       </c>
       <c r="AE5" t="n">
-        <v>999511.6343089262</v>
+        <v>1100072.213226927</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.722355282949412e-06</v>
+        <v>2.571322620819349e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.01692708333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>904119.6467538709</v>
+        <v>995082.865157597</v>
       </c>
     </row>
     <row r="6">
@@ -29317,28 +29317,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>687.213335611548</v>
+        <v>768.7902062872884</v>
       </c>
       <c r="AB6" t="n">
-        <v>940.2756034963711</v>
+        <v>1051.892676872454</v>
       </c>
       <c r="AC6" t="n">
-        <v>850.5370195837747</v>
+        <v>951.5015161323909</v>
       </c>
       <c r="AD6" t="n">
-        <v>687213.335611548</v>
+        <v>768790.2062872883</v>
       </c>
       <c r="AE6" t="n">
-        <v>940275.6034963711</v>
+        <v>1051892.676872454</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.754051369537544e-06</v>
+        <v>2.618642047445399e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.67513020833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>850537.0195837747</v>
+        <v>951501.5161323908</v>
       </c>
     </row>
     <row r="7">
@@ -29423,28 +29423,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>689.769860572065</v>
+        <v>771.3467312478053</v>
       </c>
       <c r="AB7" t="n">
-        <v>943.7735537332716</v>
+        <v>1055.390627109355</v>
       </c>
       <c r="AC7" t="n">
-        <v>853.7011303594692</v>
+        <v>954.6656269080854</v>
       </c>
       <c r="AD7" t="n">
-        <v>689769.860572065</v>
+        <v>771346.7312478053</v>
       </c>
       <c r="AE7" t="n">
-        <v>943773.5537332715</v>
+        <v>1055390.627109355</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.753145767063598e-06</v>
+        <v>2.617290063827512e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.68489583333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>853701.1303594692</v>
+        <v>954665.6269080854</v>
       </c>
     </row>
   </sheetData>
